--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_5_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_5_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.511592726485709, 9.381459598020099]</t>
+          <t>[3.6289936095376216, 9.264058714968186]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.228415199523326e-05</v>
+        <v>1.031595251377304e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>2.228415199523326e-05</v>
+        <v>1.031595251377304e-05</v>
       </c>
       <c r="O2" t="n">
         <v>-1.446579199851156</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.608799380101207, 11.137498136631987]</t>
+          <t>[7.607071426249503, 11.13922609048369]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,21 +670,21 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.9934420350285507, 9.155915397193603]</t>
+          <t>[4.01407389628571, 9.135283535936443]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>9.405042551424714e-07</v>
+        <v>7.749815289503914e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.881008510284943e-06</v>
+        <v>1.549963057900783e-06</v>
       </c>
       <c r="O3" t="n">
         <v>-2.930895248394081</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.37115848313139, -2.490632013656773]</t>
+          <t>[-3.383737432695313, -2.4780530640928498]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.328882915948544, 10.40265447661822]</t>
+          <t>[7.329565755787117, 10.401971636779647]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>11.56370370370391</v>
       </c>
       <c r="X3" t="n">
-        <v>9.82666666666684</v>
+        <v>9.777037037037209</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.30074074074098</v>
+        <v>13.35037037037061</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_5_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_5_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.6289936095376216, 9.264058714968186]</t>
+          <t>[3.5273558491490054, 9.365696475356803]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.031595251377304e-05</v>
+        <v>2.019480183323985e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>1.031595251377304e-05</v>
+        <v>2.019480183323985e-05</v>
       </c>
       <c r="O2" t="n">
         <v>-1.446579199851156</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.607071426249503, 11.13922609048369]</t>
+          <t>[7.607436990945242, 11.138860525787951]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[4.01407389628571, 9.135283535936443]</t>
+          <t>[3.966142397181617, 9.183215035040536]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>7.749815289503914e-07</v>
+        <v>1.207196463237636e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>1.549963057900783e-06</v>
+        <v>2.414392926475273e-06</v>
       </c>
       <c r="O3" t="n">
         <v>-2.930895248394081</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.329565755787117, 10.401971636779647]</t>
+          <t>[7.330807475345797, 10.400729917220968]</t>
         </is>
       </c>
       <c r="U3" t="n">
